--- a/so_yeu_ly_lich.xlsx
+++ b/so_yeu_ly_lich.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N5" sqref="M5:N5"/>
@@ -2300,6 +2300,870 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ I</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>22 tháng 02 năm 2015</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Phường 1, Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Phường 1, Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Toà Theta Residence, Thành phố Đà Lạt</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>9890123456</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Tiếng Anh</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN B</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>05 tháng 06 năm 2015</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Phường Tân Định, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Phường Tân Định, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Toà Zeta Office</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Toán học</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PHẠM VĂN H</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10 tháng 09 năm 2014</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Phường Vĩnh Hòa, Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Phường Vĩnh Hòa, Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Toà Eta Building, Thành phố Nha Trang</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>9789012345</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2222222222</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Địa lý</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07 tháng 06 năm 2020</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Phường Đa Kao, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Phường Đa Kao, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Toà nhà VNO</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Vật lí học</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LÊ VĂN G</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30 tháng 07 năm 2013</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Phường Phước Hưng, Thành phố Bà Rịa, Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Phường Phước Hưng, Thành phố Bà Rịa, Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Toà Zeta Complex, Thành phố Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>9678901234</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>3333333333</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>30/07/2023</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ D</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>15 tháng 11 năm 2015</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Phường An Khánh, Quận Ninh Kiều, Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Phường An Khánh, Quận Ninh Kiều, Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Toà Gamma Plaza, Quận Cái Răng, Cần Thơ</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>9345678901</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>6666666666</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Âm nhạc</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN E</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>03 tháng 01 năm 2014</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Phường Cát Dài, Quận Lê Chân, Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Phường Cát Dài, Quận Lê Chân, Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Toà Delta Center, Quận Hồng Bàng, Hải Phòng</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>9456789012</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lịch sử</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ F</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>25 tháng 04 năm 2015</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thành phố Huế</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Phường Phú Nhuận, Thành phố Huế, Tỉnh Thừa Thiên Huế</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Phường Phú Nhuận, Thành phố Huế, Tỉnh Thừa Thiên Huế</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Toà Epsilon Tower, Thành phố Huế</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>9567890123</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>4444444444</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Hội họa</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN K</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18 tháng 12 năm 2013</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Phường Phú Cường, Thành phố Thủ Dầu Một, Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Phường Phú Cường, Thành phố Thủ Dầu Một, Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Toà Iota Office, Thành phố Dĩ An, Bình Dương</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>9901234567</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0000000000</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>18/12/2023</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Tin học</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LÊ VĂN C</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20 tháng 08 năm 2013</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Phường Hải Châu I, Quận Hải Châu, Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Phường Hải Châu I, Quận Hải Châu, Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Toà Beta Building, Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>9234567890</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>7777777777</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>20/08/2023</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Thể thao</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN A</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>07 tháng 06 năm 2025</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Phường 04, Quận 03, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Phường 04, Quận 03, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Toà nhà Xuri</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Mới ra đời</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Khóc và quấy phá</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>12 tháng 03 năm 2014</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phường Hàng Bông, Quận Hoàn Kiếm, Thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Phường Hàng Bông, Quận Hoàn Kiếm, Thành phố Hà Nội</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Toà Alpha Tower, Quận Ba Đình, Hà Nội</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>9123456789</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>8888888888</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Ngữ văn</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/so_yeu_ly_lich.xlsx
+++ b/so_yeu_ly_lich.xlsx
@@ -413,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="M5:N5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3095,70 +3095,862 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>NGUYỄN THỊ I</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>22 tháng 02 năm 2015</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phường 1, Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Phường 1, Thành phố Đà Lạt, Tỉnh Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Toà Theta Residence, Thành phố Đà Lạt</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>9890123456</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Tiếng Anh</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN B</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>05 tháng 06 năm 2015</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Phường Tân Định, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Phường Tân Định, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Toà Zeta Office</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Toán học</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PHẠM VĂN H</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>10 tháng 09 năm 2014</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Phường Vĩnh Hòa, Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Phường Vĩnh Hòa, Thành phố Nha Trang, Tỉnh Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Toà Eta Building, Thành phố Nha Trang</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>9789012345</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2222222222</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>10/09/2024</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sinh viên</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Địa lý</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NGUYỄN THỊ C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>07 tháng 06 năm 2020</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Phường Đa Kao, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Phường Đa Kao, Quận 01, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Toà nhà VNO</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>9876543210</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>05/06/2025</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Vật lí học</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LÊ VĂN G</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>30 tháng 07 năm 2013</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Phường Phước Hưng, Thành phố Bà Rịa, Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Phường Phước Hưng, Thành phố Bà Rịa, Tỉnh Bà Rịa - Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Toà Zeta Complex, Thành phố Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>9678901234</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>3333333333</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>30/07/2023</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Đại học</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Khoa học</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PHẠM THỊ D</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>15 tháng 11 năm 2015</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Phường An Khánh, Quận Ninh Kiều, Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Phường An Khánh, Quận Ninh Kiều, Thành phố Cần Thơ</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Toà Gamma Plaza, Quận Cái Răng, Cần Thơ</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>9345678901</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>6666666666</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Âm nhạc</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN E</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>03 tháng 01 năm 2014</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Phường Cát Dài, Quận Lê Chân, Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Phường Cát Dài, Quận Lê Chân, Thành phố Hải Phòng</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Toà Delta Center, Quận Hồng Bàng, Hải Phòng</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>9456789012</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>5555555555</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>03/01/2024</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Lịch sử</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TRẦN THỊ F</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Nữ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>25 tháng 04 năm 2015</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thành phố Huế</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Phường Phú Nhuận, Thành phố Huế, Tỉnh Thừa Thiên Huế</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Phường Phú Nhuận, Thành phố Huế, Tỉnh Thừa Thiên Huế</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Toà Epsilon Tower, Thành phố Huế</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>9567890123</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>4444444444</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Trung học phổ Thông</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Hội họa</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TRẦN VĂN K</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>18 tháng 12 năm 2013</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Phường Phú Cường, Thành phố Thủ Dầu Một, Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Phường Phú Cường, Thành phố Thủ Dầu Một, Tỉnh Bình Dương</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Toà Iota Office, Thành phố Dĩ An, Bình Dương</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>9901234567</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0000000000</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>18/12/2023</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tin học</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LÊ VĂN C</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>20 tháng 08 năm 2013</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Phường Hải Châu I, Quận Hải Châu, Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Phường Hải Châu I, Quận Hải Châu, Thành phố Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Toà Beta Building, Quận Sơn Trà, Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>9234567890</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>7777777777</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>20/08/2023</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Cục Cảnh sát</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Học sinh</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Thể thao</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NGUYỄN VĂN A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Nam</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>07 tháng 06 năm 2025</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Phường 04, Quận 03, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Phường 04, Quận 03, Thành phố Hồ Chí Minh</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Toà nhà Xuri</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>9999999999</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>07/06/2025</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Cục cảnh sát</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Mới ra đời</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Khóc và quấy phá</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>TRẦN THỊ A</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Nữ</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>12 tháng 03 năm 2014</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Thành phố Hà Nội</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Phường Hàng Bông, Quận Hoàn Kiếm, Thành phố Hà Nội</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Phường Hàng Bông, Quận Hoàn Kiếm, Thành phố Hà Nội</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Toà Alpha Tower, Quận Ba Đình, Hà Nội</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>9123456789</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Kinh</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Kinh</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>8888888888</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>12/03/2024</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Cục Cảnh sát</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Học sinh</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Trung học cơ sở</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>Ngữ văn</t>
         </is>
